--- a/TestList/7.0GSZJ-StudentUnqualifiedNumber.xlsx
+++ b/TestList/7.0GSZJ-StudentUnqualifiedNumber.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t xml:space="preserve">序号
 （id）   </t>
@@ -108,40 +108,34 @@
     <t>//input[contains(@class,'btn btn-large breath')]</t>
   </si>
   <si>
-    <t>waitlogin</t>
+    <t>Class opening menu</t>
+  </si>
+  <si>
+    <t>https://gszj.59iedu.com/admin/publicDemandClassLearningStatisticUserDimension////</t>
+  </si>
+  <si>
+    <t>input result</t>
+  </si>
+  <si>
+    <t>//input[contains(@class,'k-input slt slt-small')]</t>
+  </si>
+  <si>
+    <t>未通过</t>
+  </si>
+  <si>
+    <t>query studydetail</t>
+  </si>
+  <si>
+    <t>//a[contains(@class,'btn btn-b')]</t>
+  </si>
+  <si>
+    <t>wait query</t>
   </si>
   <si>
     <t>等待</t>
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>重跑</t>
-  </si>
-  <si>
-    <t>Class opening menu</t>
-  </si>
-  <si>
-    <t>https://gszj.59iedu.com/admin/publicDemandClassLearningStatisticUserDimension////</t>
-  </si>
-  <si>
-    <t>input result</t>
-  </si>
-  <si>
-    <t>//input[contains(@class,'k-input slt slt-small')]</t>
-  </si>
-  <si>
-    <t>未通过</t>
-  </si>
-  <si>
-    <t>query studydetail</t>
-  </si>
-  <si>
-    <t>//a[contains(@class,'btn btn-b')]</t>
-  </si>
-  <si>
-    <t>wait query</t>
   </si>
   <si>
     <t>Get Order Number</t>
@@ -159,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,9 +166,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,53 +196,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +242,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -256,61 +304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,19 +319,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,18 +385,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,19 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,115 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,29 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,28 +558,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +581,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,19 +630,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,126 +651,123 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1125,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1142,294 +1133,271 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://gszj.59iedu.com/login/index"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
